--- a/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4743,31 +4746,31 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>6452</v>
+        <v>11966</v>
       </c>
       <c r="C74">
-        <v>3025</v>
+        <v>8831</v>
       </c>
       <c r="D74">
-        <v>-4</v>
+        <v>6235</v>
       </c>
       <c r="E74">
-        <v>2294</v>
+        <v>1862</v>
       </c>
       <c r="F74">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G74">
-        <v>3879</v>
+        <v>3788</v>
       </c>
       <c r="H74">
         <v>196</v>
       </c>
       <c r="I74">
-        <v>3684</v>
+        <v>3592</v>
       </c>
       <c r="J74">
-        <v>3166</v>
+        <v>3075</v>
       </c>
       <c r="K74">
         <v>518</v>
@@ -4776,13 +4779,13 @@
         <v>-3018</v>
       </c>
       <c r="M74">
-        <v>2566</v>
+        <v>2366</v>
       </c>
       <c r="N74">
-        <v>1178</v>
+        <v>1187</v>
       </c>
       <c r="O74">
-        <v>1301</v>
+        <v>1092</v>
       </c>
       <c r="P74">
         <v>87</v>
@@ -4791,6 +4794,62 @@
         <v>0</v>
       </c>
       <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75">
+        <v>7286</v>
+      </c>
+      <c r="C75">
+        <v>4884</v>
+      </c>
+      <c r="D75">
+        <v>2970</v>
+      </c>
+      <c r="E75">
+        <v>2379</v>
+      </c>
+      <c r="F75">
+        <v>-466</v>
+      </c>
+      <c r="G75">
+        <v>6358</v>
+      </c>
+      <c r="H75">
+        <v>811</v>
+      </c>
+      <c r="I75">
+        <v>5547</v>
+      </c>
+      <c r="J75">
+        <v>6426</v>
+      </c>
+      <c r="K75">
+        <v>-880</v>
+      </c>
+      <c r="L75">
+        <v>-2806</v>
+      </c>
+      <c r="M75">
+        <v>-1150</v>
+      </c>
+      <c r="N75">
+        <v>326</v>
+      </c>
+      <c r="O75">
+        <v>-1458</v>
+      </c>
+      <c r="P75">
+        <v>-18</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
         <v>0</v>
       </c>
     </row>

--- a/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4853,6 +4856,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76">
+        <v>21658</v>
+      </c>
+      <c r="C76">
+        <v>1659</v>
+      </c>
+      <c r="D76">
+        <v>-748</v>
+      </c>
+      <c r="E76">
+        <v>1619</v>
+      </c>
+      <c r="F76">
+        <v>788</v>
+      </c>
+      <c r="G76">
+        <v>16348</v>
+      </c>
+      <c r="H76">
+        <v>663</v>
+      </c>
+      <c r="I76">
+        <v>15685</v>
+      </c>
+      <c r="J76">
+        <v>15437</v>
+      </c>
+      <c r="K76">
+        <v>248</v>
+      </c>
+      <c r="L76">
+        <v>-2635</v>
+      </c>
+      <c r="M76">
+        <v>6286</v>
+      </c>
+      <c r="N76">
+        <v>1116</v>
+      </c>
+      <c r="O76">
+        <v>2712</v>
+      </c>
+      <c r="P76">
+        <v>80</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>2378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
